--- a/Data/UCH_Data.xlsx
+++ b/Data/UCH_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\uch-ranking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D8E670-9C37-4DBE-ADB4-4BFB84BBF6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEDAB2-E1AB-4746-9E58-52819D95AC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="-108" windowWidth="39528" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="-108" windowWidth="39528" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="77">
   <si>
     <t>Winner1</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -750,9 +756,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -798,12 +805,11 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -880,16 +886,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Players2__2" displayName="Players2__2" ref="A1:B32" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B32" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Players2__2" displayName="Players2__2" ref="A1:B32" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="B1:B32"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ShortName" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Name" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ShortName" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Name" queryTableFieldId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -897,16 +902,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Matches2" displayName="Matches2" ref="A1:K162" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Winner1" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Winner2" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Winner3" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Winner4" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Winner5" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Loser1" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Loser2" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="Loser3" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="Loser4" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="Loser5" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Winner1" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Winner2" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Winner3" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Winner4" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Winner5" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Loser1" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Loser2" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="Loser3" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="Loser4" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="Loser5" queryTableFieldId="10" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" uniqueName="11" name="K" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1210,35 +1215,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1286,7 +1298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1306,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1318,7 +1330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1326,7 +1338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1490,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>

--- a/Data/UCH_Data.xlsx
+++ b/Data/UCH_Data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\uch-ranking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEDAB2-E1AB-4746-9E58-52819D95AC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A226FB-8D6F-44FD-92D6-10E4678E4D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="-108" windowWidth="39528" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="-108" windowWidth="39528" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
     <sheet name="Matches" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">Matches!$A$1:$K$162</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">Matches!$A$1:$K$94</definedName>
     <definedName name="ExterneDaten_2" localSheetId="0" hidden="1">Players!$A$1:$B$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="77">
   <si>
     <t>Winner1</t>
   </si>
@@ -807,9 +807,7 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -839,7 +837,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -886,7 +886,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Players2__2" displayName="Players2__2" ref="A1:B32" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Players2__2" displayName="Players2__2" ref="A1:B32" tableType="queryTable" totalsRowShown="0" headerRowDxfId="10">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="B1:B32"/>
   </sortState>
@@ -899,19 +899,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Matches2" displayName="Matches2" ref="A1:K162" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K162" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Matches2" displayName="Matches2" ref="A1:K94" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Winner1" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Winner2" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Winner3" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Winner4" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Winner5" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Loser1" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Loser2" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="Loser3" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="Loser4" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="Loser5" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Winner1" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Winner2" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Winner3" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Winner4" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Winner5" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Loser1" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Loser2" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="Loser3" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="Loser4" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="Loser5" queryTableFieldId="10" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" uniqueName="11" name="K" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1217,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1500,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K165" sqref="K165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,662 +1550,662 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
+        <v>23</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>0.5</v>
+        <v>32</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>0.5</v>
+        <v>31</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>0.5</v>
+        <v>29</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
+        <v>23</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
+        <v>29</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
+        <v>27</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
+        <v>25</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16">
-        <v>0.5</v>
+        <v>25</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17">
-        <v>0.5</v>
+        <v>26</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18">
-        <v>0.5</v>
+      <c r="K18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21">
-        <v>0.5</v>
+        <v>33</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23">
-        <v>0.5</v>
+        <v>34</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24">
-        <v>0.5</v>
+        <v>33</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27">
-        <v>0.5</v>
+        <v>34</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
+        <v>33</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>0.5</v>
+        <v>36</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <v>0.5</v>
+        <v>37</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33">
-        <v>0.5</v>
+        <v>22</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <v>0.5</v>
+        <v>35</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
+        <v>33</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37">
-        <v>0.5</v>
+        <v>35</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39">
-        <v>0.5</v>
+        <v>38</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40">
-        <v>0.5</v>
+        <v>37</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42">
-        <v>0.5</v>
+        <v>33</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45">
-        <v>0.5</v>
+        <v>36</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46">
-        <v>0.5</v>
+        <v>31</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
-      </c>
-      <c r="K48">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K49">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
-      </c>
-      <c r="K50">
-        <v>0.5</v>
+        <v>33</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
-      </c>
-      <c r="K51">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="K52">
-        <v>0.5</v>
+        <v>37</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K53">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
-      </c>
-      <c r="K54">
-        <v>0.5</v>
+        <v>40</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55">
-        <v>0.5</v>
+        <v>17</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56">
-        <v>0.5</v>
+        <v>40</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57">
-        <v>0.5</v>
+        <v>23</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58">
-        <v>0.5</v>
+        <v>27</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59">
-        <v>0.5</v>
+        <v>27</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
         <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K62" s="1">
         <v>1</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K63" s="1">
         <v>1</v>
@@ -2232,10 +2232,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K65" s="1">
         <v>1</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K66" s="1">
         <v>1</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K67" s="1">
         <v>1</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K69" s="1">
         <v>1</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K70" s="1">
         <v>1</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K71" s="1">
         <v>1</v>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K72" s="1">
         <v>1</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K73" s="1">
         <v>1</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K74" s="1">
         <v>1</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K75" s="1">
         <v>1</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K76" s="1">
         <v>1</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
         <v>26</v>
-      </c>
-      <c r="F77" t="s">
-        <v>27</v>
       </c>
       <c r="K77" s="1">
         <v>1</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K79" s="1">
         <v>1</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K80" s="1">
         <v>1</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K81" s="1">
         <v>1</v>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K82" s="1">
         <v>1</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K83" s="1">
         <v>1</v>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K84" s="1">
         <v>1</v>
@@ -2466,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K85" s="1">
         <v>1</v>
@@ -2477,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K86" s="1">
         <v>1</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K87" s="1">
         <v>1</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K88" s="1">
         <v>1</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K90" s="1">
         <v>1</v>
@@ -2529,10 +2529,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K91" s="1">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K92" s="1">
         <v>1</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K93" s="1">
         <v>1</v>
@@ -2562,760 +2562,12 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" t="s">
-        <v>36</v>
-      </c>
-      <c r="K95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" t="s">
-        <v>37</v>
-      </c>
-      <c r="K96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="K97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>40</v>
-      </c>
-      <c r="F98" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" t="s">
-        <v>35</v>
-      </c>
-      <c r="K99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s">
-        <v>33</v>
-      </c>
-      <c r="K100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>36</v>
-      </c>
-      <c r="F101" t="s">
-        <v>35</v>
-      </c>
-      <c r="K101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>36</v>
-      </c>
-      <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s">
-        <v>38</v>
-      </c>
-      <c r="K103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" t="s">
-        <v>37</v>
-      </c>
-      <c r="K104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" t="s">
-        <v>33</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="K108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" t="s">
-        <v>36</v>
-      </c>
-      <c r="K109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>17</v>
-      </c>
-      <c r="F110" t="s">
-        <v>31</v>
-      </c>
-      <c r="K110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" t="s">
-        <v>41</v>
-      </c>
-      <c r="K111" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>41</v>
-      </c>
-      <c r="F114" t="s">
-        <v>33</v>
-      </c>
-      <c r="K114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>31</v>
-      </c>
-      <c r="F115" t="s">
-        <v>41</v>
-      </c>
-      <c r="K115" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" t="s">
-        <v>37</v>
-      </c>
-      <c r="K116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="K117" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="K119" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>31</v>
-      </c>
-      <c r="F120" t="s">
-        <v>40</v>
-      </c>
-      <c r="K120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>31</v>
-      </c>
-      <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="K121" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="K122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>31</v>
-      </c>
-      <c r="F123" t="s">
-        <v>27</v>
-      </c>
-      <c r="K123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>31</v>
-      </c>
-      <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="K124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>31</v>
-      </c>
-      <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="K125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" t="s">
-        <v>38</v>
-      </c>
-      <c r="K126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" t="s">
-        <v>39</v>
-      </c>
-      <c r="K127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>20</v>
-      </c>
-      <c r="F128" t="s">
-        <v>40</v>
-      </c>
-      <c r="K128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="K129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" t="s">
-        <v>41</v>
-      </c>
-      <c r="K130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>40</v>
-      </c>
-      <c r="F131" t="s">
-        <v>37</v>
-      </c>
-      <c r="K131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" t="s">
-        <v>36</v>
-      </c>
-      <c r="K132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>17</v>
-      </c>
-      <c r="F133" t="s">
-        <v>38</v>
-      </c>
-      <c r="K133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="K134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" t="s">
-        <v>27</v>
-      </c>
-      <c r="K135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>26</v>
-      </c>
-      <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="K136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>40</v>
-      </c>
-      <c r="F137" t="s">
-        <v>27</v>
-      </c>
-      <c r="K137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" t="s">
-        <v>40</v>
-      </c>
-      <c r="K138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" t="s">
-        <v>25</v>
-      </c>
-      <c r="K139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="K140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="K141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="K142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>24</v>
-      </c>
-      <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="K143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="K144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>23</v>
-      </c>
-      <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="K145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="K146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="K147" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>20</v>
-      </c>
-      <c r="F148" t="s">
-        <v>24</v>
-      </c>
-      <c r="K148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="K149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="K150" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="K151" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>23</v>
-      </c>
-      <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="K152" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>20</v>
-      </c>
-      <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="K154" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>20</v>
-      </c>
-      <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="K156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>17</v>
-      </c>
-      <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="K157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="K158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="K159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="K160" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="K161" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="K162" s="1">
         <v>1</v>
       </c>
     </row>
